--- a/import/PLC.xlsx
+++ b/import/PLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kir\Desktop\PycharmProjects\RSLogix_signal_processing\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A957DF-0114-4038-9E29-633493146009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA32692-5D92-4033-A5AA-BF5C9295B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="M2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>JAXCGA</v>
+        <v>MWNCPI</v>
       </c>
       <c r="N2" t="s">
         <v>548</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>RQZYIL</v>
+        <v>GHISHS</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AKPTQN</v>
+        <v>OEBJJW</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BIQWMT</v>
+        <v>FRESFB</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OHHETY</v>
+        <v>BBKLZN</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OSSIHU</v>
+        <v>HMXVUE</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ELZIMW</v>
+        <v>HTTPGR</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RKWCFJ</v>
+        <v>LWTCYP</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IIFUJK</v>
+        <v>KNOFPK</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TVADKA</v>
+        <v>LUIODI</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TIYEVE</v>
+        <v>JOBFRP</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JHUDYN</v>
+        <v>DZNIUM</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YKPCTR</v>
+        <v>KEBKVT</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MWHHJE</v>
+        <v>WMWAXR</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LVSZFE</v>
+        <v>ZAQWVZ</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>EPTINF</v>
+        <v>BCDBGC</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JCAHGM</v>
+        <v>MXZYKU</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TKWLNK</v>
+        <v>REBBJG</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JFFJPH</v>
+        <v>WANIJK</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WJIUAU</v>
+        <v>UBFIDN</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OERRHA</v>
+        <v>LXTUWR</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>POKESE</v>
+        <v>KHXCBR</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HARPRF</v>
+        <v>NJEUPF</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IFSJGG</v>
+        <v>WVLARL</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NETZSI</v>
+        <v>YUXCSG</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FGASDB</v>
+        <v>QSYWUD</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TQDAHP</v>
+        <v>FZPMET</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BIVRGI</v>
+        <v>PCXAGI</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>QAXUXE</v>
+        <v>VXGKIR</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VBWEEM</v>
+        <v>QARKYO</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHSFYB</v>
+        <v>WTIOLB</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YVNTLS</v>
+        <v>HLZPTB</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VLNSAH</v>
+        <v>GLFRNF</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LVTBMR</v>
+        <v>XODSGZ</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>QUHLDS</v>
+        <v>HXZQWH</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JQSENA</v>
+        <v>UWMAFE</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PHSKJI</v>
+        <v>URPYFC</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VMVIDQ</v>
+        <v>MTWBYK</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LGSMSX</v>
+        <v>OWXWRR</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CIWMZS</v>
+        <v>VRAWHF</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VUSTYG</v>
+        <v>LGNSUA</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AHZPNE</v>
+        <v>NHCOMK</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ZDNKAR</v>
+        <v>NRNMRW</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ONPCQJ</v>
+        <v>TWUEAO</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WOKSZT</v>
+        <v>SPVQHU</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JPGTVN</v>
+        <v>RTOYGV</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JVQFEZ</v>
+        <v>YMEDAP</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RZRJEP</v>
+        <v>USAZHF</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FJTGVL</v>
+        <v>SZMBGK</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ANKDIK</v>
+        <v>PUGKIH</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FWFZSC</v>
+        <v>ZQKINL</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RAVCWM</v>
+        <v>NHMDPM</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AOPWUX</v>
+        <v>VLJQQT</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHJDKM</v>
+        <v>IIKHCF</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LQADAL</v>
+        <v>UUQBNE</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GCYAJV</v>
+        <v>WNGDYI</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MQGPUH</v>
+        <v>CQPXON</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MGMSGZ</v>
+        <v>VZQWVQ</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FUCVMI</v>
+        <v>XJJHYC</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JNHAAD</v>
+        <v>OPSRHY</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FVKBWP</v>
+        <v>ZWXQYU</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>UPCQSU</v>
+        <v>CBFJPZ</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OZPABA</v>
+        <v>KUTRYE</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IZDWKW</v>
+        <v>NBEEMQ</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VOZICI</v>
+        <v>GQLRSU</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="M67" t="str">
         <f t="shared" ref="M67:M130" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>FAAIPE</v>
+        <v>NKUDRM</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ICRSFQ</v>
+        <v>YNZQQX</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZFIUFD</v>
+        <v>WRBOWF</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HXKDQD</v>
+        <v>QPEVNT</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PRFBSS</v>
+        <v>PYZZVL</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QEXSOX</v>
+        <v>YLKQPC</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZTCCBN</v>
+        <v>IJBNKN</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FJCMKI</v>
+        <v>YWWCAW</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SZZEIR</v>
+        <v>YPKIMU</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UBMHUI</v>
+        <v>JQHZBF</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BBJJBC</v>
+        <v>VEDVJW</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YXSIFF</v>
+        <v>MKUUSH</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HJCVHW</v>
+        <v>DJXQUQ</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RRAGMJ</v>
+        <v>TABXQK</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QHJOYA</v>
+        <v>FPGARU</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KUOGTZ</v>
+        <v>BBEIOW</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RDMGEZ</v>
+        <v>CBIVOW</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IDUKDS</v>
+        <v>CJBMDG</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDHKLO</v>
+        <v>XXUEEB</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DFHNDZ</v>
+        <v>UBQSDF</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HIMEFV</v>
+        <v>QQJVLE</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZASRFL</v>
+        <v>EGLMQC</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BQWCZE</v>
+        <v>XMLSTP</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BLBARR</v>
+        <v>IFVCCN</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JNRTCV</v>
+        <v>HYQTRF</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DJKNKV</v>
+        <v>CEAHBJ</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OSMFNH</v>
+        <v>WURQLU</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FFEKFT</v>
+        <v>FXUQHG</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OHIVCN</v>
+        <v>VAQVGG</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WEZJTR</v>
+        <v>NPPQUM</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JCBHVQ</v>
+        <v>GNGVLI</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WMGUZW</v>
+        <v>FLIXVC</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DHPSNX</v>
+        <v>RTACGV</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="M100" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CJCQRI</v>
+        <v>HBCLCG</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="M101" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DUPVTZ</v>
+        <v>TLCTSF</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JOGLVE</v>
+        <v>EPTZTV</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MTASEI</v>
+        <v>FAYCOD</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NYZQGE</v>
+        <v>ETVCNT</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WUYUJS</v>
+        <v>BBBLRR</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HTHVMI</v>
+        <v>GYGPVJ</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JQJBDA</v>
+        <v>QQJZXP</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZVSVAP</v>
+        <v>AOFQTP</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="M109" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KYONWZ</v>
+        <v>IMHDJD</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WFPJKF</v>
+        <v>REXPWH</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EMBXGN</v>
+        <v>TOEYQY</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AVDPHU</v>
+        <v>WJSVNZ</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KNUQCJ</v>
+        <v>DHFLWE</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EQNXHN</v>
+        <v>EVBOIO</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKRFJT</v>
+        <v>XUXJHD</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WCVCQQ</v>
+        <v>IKGFXE</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TNQDLU</v>
+        <v>YLHZUZ</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EASBUN</v>
+        <v>HWCTBV</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SYCDKO</v>
+        <v>UBGUZA</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WOUHJG</v>
+        <v>EUWYES</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EDMSTL</v>
+        <v>TKCJGB</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TLAMYF</v>
+        <v>MBHZOY</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MMGCJO</v>
+        <v>IBSUCP</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GCUUAZ</v>
+        <v>DFJVOF</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="M125" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UXIXCT</v>
+        <v>VGUBYV</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="M126" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FPVZCS</v>
+        <v>OBYKTC</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="M127" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GFIQSL</v>
+        <v>LTEZVQ</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="M128" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZBUJSC</v>
+        <v>ZZGSDL</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="M129" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KKEAPC</v>
+        <v>CFRQOU</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="M130" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SIYAWW</v>
+        <v>ZRWTZX</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="M131" t="str">
         <f t="shared" ref="M131:M194" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>XORKEV</v>
+        <v>JVDFYY</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="M132" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YDJLKS</v>
+        <v>MHGPYS</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="M133" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JYZVAA</v>
+        <v>MSUGEH</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="M134" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IVMXTK</v>
+        <v>UWBXEC</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="M135" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GVVIEL</v>
+        <v>OKKVTP</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="M136" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SZMDCJ</v>
+        <v>AYPRFY</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="M137" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QHGXNH</v>
+        <v>RBLHNT</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="M138" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OELVRH</v>
+        <v>OCPSCJ</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="M139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JWLLXL</v>
+        <v>SXVLAV</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="M140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RBAEPE</v>
+        <v>HCJUDI</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="M141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RJBTZT</v>
+        <v>AXKXQY</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="M142" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NTJSHM</v>
+        <v>FOSYLA</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="M143" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AILVOF</v>
+        <v>JJZCIT</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="M144" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XCMSZQ</v>
+        <v>MDJLQU</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="M145" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EYEQKD</v>
+        <v>LCDGFR</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="M146" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TMPYAS</v>
+        <v>COSWVE</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="M147" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ADZYNT</v>
+        <v>RAXRBO</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="M148" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VCKTBD</v>
+        <v>MSDDJG</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="M149" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>POAJWF</v>
+        <v>YVCPWV</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="M150" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FKDZVV</v>
+        <v>XMQOVQ</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="M151" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IZCCKJ</v>
+        <v>IMLDDR</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="M152" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PJBGYC</v>
+        <v>GCHGMH</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="M153" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FGFSCN</v>
+        <v>HAGHDA</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="M154" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RPUDAM</v>
+        <v>HXXZGX</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="M155" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EIKFLB</v>
+        <v>APJBRO</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="M156" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YARFNZ</v>
+        <v>YXWTDY</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="M157" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CFASGS</v>
+        <v>ISKFEH</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="M158" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IWVMLD</v>
+        <v>UMXEPW</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="M159" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NDMGQU</v>
+        <v>SKCBQP</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="M160" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DYVASR</v>
+        <v>LAFNPD</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="M161" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QLBSPC</v>
+        <v>VIINWO</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="M162" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PARGYQ</v>
+        <v>DWVFQJ</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="M163" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YNZMYY</v>
+        <v>JNERKO</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="M164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XHZLXL</v>
+        <v>LRIVGH</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="M165" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OXVDGR</v>
+        <v>YVNJTV</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="M166" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ENNOYO</v>
+        <v>LUEICI</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="M167" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CZDWMK</v>
+        <v>XNMFJG</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="M168" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CDKISB</v>
+        <v>ZGHPFV</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="M169" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OZXTJH</v>
+        <v>CSJVVD</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="M170" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VRHHZR</v>
+        <v>MWBZZI</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="M171" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CXTLYW</v>
+        <v>VQSTJW</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="M172" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TWCLYZ</v>
+        <v>RCSFAU</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="M173" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VEUUHF</v>
+        <v>JESXRW</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="M174" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CQLRGV</v>
+        <v>VEOGDR</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="M175" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OUJJUE</v>
+        <v>YIIDTA</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="M176" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MPLORU</v>
+        <v>WPENUM</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TBJEEA</v>
+        <v>PWVNHA</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FZAKXQ</v>
+        <v>EWUSLC</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BURDSE</v>
+        <v>JBSZUN</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WWEMFV</v>
+        <v>OAVYYZ</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OFXYTW</v>
+        <v>IUYHIZ</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="M182" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RSUMXP</v>
+        <v>QLRTFR</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="M183" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SZKLWE</v>
+        <v>KJOLBN</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="M184" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LKRKWN</v>
+        <v>XEYKSF</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="M185" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HSFMNZ</v>
+        <v>PMVOHX</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="M186" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MJJEDK</v>
+        <v>CMYBZP</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="M187" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LGXHCW</v>
+        <v>IGSRIN</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="M188" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZAZZQI</v>
+        <v>UTMMWB</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="M189" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XFELJH</v>
+        <v>IULLRQ</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="M190" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JSPJHU</v>
+        <v>YCRKHB</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="M191" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MXHLOT</v>
+        <v>FOXIFK</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="M192" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GTHKVI</v>
+        <v>SEMQGW</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="M193" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OQVBGX</v>
+        <v>SPMBOD</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="M194" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OFKGNF</v>
+        <v>GSSWRX</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="M195" t="str">
         <f t="shared" ref="M195:M258" ca="1" si="3">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>XVPUIW</v>
+        <v>FWJLKC</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="M196" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OQSGEC</v>
+        <v>IKVUWH</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="M197" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KIQWGK</v>
+        <v>KKAYKW</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="M198" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GLYBME</v>
+        <v>ZRQKIX</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="M199" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CSXXRG</v>
+        <v>BLSXNT</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="M200" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EKWLHZ</v>
+        <v>HBOMJM</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="M201" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XZVYRM</v>
+        <v>SVSCNP</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="M202" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MFNFMF</v>
+        <v>APUPVH</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="M203" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HGDLZV</v>
+        <v>ZATBUX</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="M204" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HKTCCK</v>
+        <v>AABCGK</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="M205" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NLOHLY</v>
+        <v>QTPBJG</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="M206" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JLNVTP</v>
+        <v>VUZLQL</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="M207" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JVAJHT</v>
+        <v>TUNTVY</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="M208" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SVLHAX</v>
+        <v>KFAYKC</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="M209" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LNXOYK</v>
+        <v>LDRPBV</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="M210" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VEHPXX</v>
+        <v>SJHFQF</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="M211" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RJYQKP</v>
+        <v>XPQHZV</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="M212" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SXSYUT</v>
+        <v>LGBHRQ</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="M213" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FVVXUP</v>
+        <v>NZLUXP</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="M214" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MWFVPP</v>
+        <v>LZHTIF</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="M215" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QEPBRW</v>
+        <v>ARGGEH</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="M216" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IQTHJY</v>
+        <v>PYSHWX</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="M217" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UVQPKX</v>
+        <v>UEGBMO</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="M218" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VFHSEX</v>
+        <v>UABMJF</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="M219" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IUVLGW</v>
+        <v>BUSCRG</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="M220" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WELQYL</v>
+        <v>GCMVAO</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="M221" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RASVZL</v>
+        <v>TNXNCI</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="M222" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WWJETJ</v>
+        <v>WRHFQY</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="M223" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SCCSSX</v>
+        <v>KDDCUY</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="M224" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UAAPBV</v>
+        <v>LUPNLU</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="M225" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CEDMQC</v>
+        <v>MDBCBB</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="M226" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DTRQJJ</v>
+        <v>OWPJVC</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="M227" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QSSSQL</v>
+        <v>NAXAPJ</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="M228" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MFTPYA</v>
+        <v>TTTJHB</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="M229" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UIOUKA</v>
+        <v>ZHYMQO</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="M230" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HSNDYC</v>
+        <v>NBFIOA</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="M231" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DUPYET</v>
+        <v>IEQVWT</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="M232" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FFFONX</v>
+        <v>GGNFGO</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="M233" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ORNFDE</v>
+        <v>PDDAIZ</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="M234" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EJBSSV</v>
+        <v>UHDOCH</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="M235" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EPZZHB</v>
+        <v>EVJGCI</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="M236" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JUEAVJ</v>
+        <v>HSAJPF</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="M237" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PRMMFE</v>
+        <v>RSUVAS</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="M238" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WPDRWL</v>
+        <v>KENJNS</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="M239" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MYFIPB</v>
+        <v>DLGOJE</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="M240" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PEMBST</v>
+        <v>DZEIHY</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="M241" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EAVWSI</v>
+        <v>DCEWFG</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="M242" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EVGUGW</v>
+        <v>PEZKIC</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="M243" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GCJUVM</v>
+        <v>BZMODY</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="M244" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IUZHWF</v>
+        <v>ZHHCSS</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="M245" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RISJTP</v>
+        <v>BDHQOC</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="M246" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CDUBBX</v>
+        <v>XBCVQI</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="M247" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RBAGDF</v>
+        <v>BBHMMD</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="M248" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DVCMRO</v>
+        <v>ZOKPEF</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="M249" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DOPPGJ</v>
+        <v>LGPHSX</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="M250" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HCEQTK</v>
+        <v>NDZUCA</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="M251" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SYVDWG</v>
+        <v>QDHQXF</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="M252" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NIILGZ</v>
+        <v>CGNCQD</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="M253" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NYKFSP</v>
+        <v>UMZDUQ</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="M254" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LLWAZS</v>
+        <v>IJPVTU</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="M255" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MBVGRT</v>
+        <v>KUJOOM</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="M256" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LLVEWB</v>
+        <v>MDPRET</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="M257" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YAGAOF</v>
+        <v>CMQDMW</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="M258" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BLSAKJ</v>
+        <v>KDUWFS</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="M259" t="str">
         <f t="shared" ref="M259:M281" ca="1" si="4">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>YNLSOI</v>
+        <v>XDDPBQ</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -12204,7 +12204,7 @@
       </c>
       <c r="M260" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ANEPAL</v>
+        <v>YVLYKS</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="M261" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>TVQSTK</v>
+        <v>CPGOKP</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="M262" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LNZFZR</v>
+        <v>QHBAQF</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="M263" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MSNCDF</v>
+        <v>GPUOQA</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="M264" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LHGOFB</v>
+        <v>DKQZLM</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="M265" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CEMYKZ</v>
+        <v>GBPLFH</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="M266" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CRZSZW</v>
+        <v>NEOKDN</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="M267" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>KWBAHZ</v>
+        <v>CXDFDX</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="M268" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>NWIZLA</v>
+        <v>XZBARP</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="M269" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>UMEYRS</v>
+        <v>EDQMFH</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="M270" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>OGZGIX</v>
+        <v>KRYVWM</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="M271" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>UHSVCT</v>
+        <v>ZXJBFG</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="M272" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AXGZAV</v>
+        <v>INXSDK</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="M273" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ETJRLL</v>
+        <v>GPSZJK</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="M274" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>IQRSKD</v>
+        <v>OUZPMX</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="M275" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>GBWIEP</v>
+        <v>MZHUNZ</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="M276" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>RLXVXO</v>
+        <v>LPXLRK</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
       </c>
       <c r="M277" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>RLCWIV</v>
+        <v>EQWMEY</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="M278" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>KMKIMR</v>
+        <v>XPNLUD</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="M279" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>XYLWGO</v>
+        <v>XVNOAS</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="M280" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>RVUKRQ</v>
+        <v>JIDRBX</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="M281" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>OIJJKA</v>
+        <v>IWAQFR</v>
       </c>
     </row>
   </sheetData>
